--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\walla\Documents\Projetos\pca_6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WallaceSilva\Documents\pca\pca_6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9EA190-1EE2-45FC-938F-C8001D729444}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A3E5C2-8FD7-4B5A-BC06-F9BB4896B884}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19308" yWindow="-1704" windowWidth="19416" windowHeight="10416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6525" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -962,8 +962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="E141" sqref="E141"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3811,7 +3811,7 @@
         <v>16</v>
       </c>
       <c r="E141" s="13" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="F141" s="13">
         <v>2019</v>
